--- a/01_Analisis_Exploratorio/02_Datos/Relaciones_Conjuntos_Datos.xlsx
+++ b/01_Analisis_Exploratorio/02_Datos/Relaciones_Conjuntos_Datos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Expedicion_Pacifico\2021\Ictioplancton\Analisis_Exp_Pac\Ictioplancton_ExPacifico2020\01_Analisis_Exploratorio\02_Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Expedicion_Pacifico\2021\Ictioplancton\Analisis_Exp_Pac\Ictioplancton_ExPacifico2021\01_Analisis_Exploratorio\02_Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58FCD9B-94DD-4272-A059-342253B76BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6E3202-2D76-48B8-A351-8264768521DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1529,11 +1529,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE4B3A2-F13A-4A19-AFAD-8C9C173C5E7B}">
   <dimension ref="A1:S38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:S38"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1552,6 +1552,7 @@
     <col min="14" max="14" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
